--- a/public/template/file/mau_hau_kiem_tkb.xlsx
+++ b/public/template/file/mau_hau_kiem_tkb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huuduc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tkb-ptit-react\public\template\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32AC47-D090-4EBD-BACD-8ECADBA298D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB6131-7032-42E0-8DCD-81C153D11174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{350158DD-3BB3-439F-9435-8F8A65546F2D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="77">
   <si>
     <t>TT</t>
   </si>
@@ -171,13 +171,109 @@
   </si>
   <si>
     <t>Ngày KT</t>
+  </si>
+  <si>
+    <t>INT14149</t>
+  </si>
+  <si>
+    <t>IoT và ứng dụng</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>KDT100309</t>
+  </si>
+  <si>
+    <t>Trần Thị Thanh Thủy</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>Hệ thống thông tin</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>D22HTTT03</t>
+  </si>
+  <si>
+    <t>HTTT</t>
+  </si>
+  <si>
+    <t>HTTT3</t>
+  </si>
+  <si>
+    <t>Bài tập lớn</t>
+  </si>
+  <si>
+    <t>SKD1108</t>
+  </si>
+  <si>
+    <t>Phương pháp luận nghiên cứu khoa học</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>VKT100565</t>
+  </si>
+  <si>
+    <t>Đinh Thị Hương</t>
+  </si>
+  <si>
+    <t>VKT</t>
+  </si>
+  <si>
+    <t>Kỹ năng mềm</t>
+  </si>
+  <si>
+    <t>D22CNPM02</t>
+  </si>
+  <si>
+    <t>CNPM</t>
+  </si>
+  <si>
+    <t>CNPM2</t>
+  </si>
+  <si>
+    <t>ELE1349</t>
+  </si>
+  <si>
+    <t>Hệ thống điều khiển phi tuyến</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>KDT100830</t>
+  </si>
+  <si>
+    <t>Mai Thị Nghĩa</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>Điện tử máy tính</t>
+  </si>
+  <si>
+    <t>D23CQDK01-B</t>
+  </si>
+  <si>
+    <t>DK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +325,34 @@
       <charset val="163"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Display"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Display"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -244,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -421,13 +545,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -484,70 +623,165 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 13" xfId="1" xr:uid="{55B9B6E5-06E4-4DD8-81C0-81BB1B9F1825}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{01969C8A-FE7D-4366-A617-63338C5081F9}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -898,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790F8739-A3F7-40D0-B760-71E0116971E6}">
-  <dimension ref="A1:BJ3"/>
+  <dimension ref="A1:BJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,172 +1194,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="26" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="8"/>
       <c r="R1" s="8"/>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="32" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="9"/>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>19</v>
       </c>
       <c r="AA1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AB1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="28" t="s">
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="28" t="s">
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="28" t="s">
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="30"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="37"/>
       <c r="AR1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AS1" s="25" t="s">
+      <c r="AS1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AT1" s="25" t="s">
+      <c r="AT1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AV1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AW1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AX1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AY1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="AZ1" s="21" t="s">
         <v>33</v>
       </c>
       <c r="BA1" s="7"/>
-      <c r="BB1" s="20" t="s">
+      <c r="BB1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BC1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-      <c r="BI1" s="24" t="s">
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
+      <c r="BG1" s="21"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="37"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="26"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
       <c r="AA2" s="10" t="s">
         <v>37</v>
       </c>
@@ -1180,64 +1414,64 @@
       <c r="AR2" s="15">
         <v>1</v>
       </c>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
       <c r="BA2" s="12"/>
       <c r="BB2" s="23"/>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="BD2" s="20" t="s">
+      <c r="BD2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BI2" s="24"/>
-      <c r="BJ2" s="22"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="21"/>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="38"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
-      <c r="P3" s="27"/>
+      <c r="P3" s="28"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
       <c r="U3" s="19"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
       <c r="AA3" s="10" t="s">
         <v>44</v>
       </c>
@@ -1292,43 +1526,512 @@
       <c r="AR3" s="15">
         <v>7</v>
       </c>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="22"/>
-      <c r="AV3" s="22"/>
-      <c r="AW3" s="22"/>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
       <c r="BA3" s="17"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="21"/>
-      <c r="BD3" s="21" t="s">
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BE3" s="21" t="s">
+      <c r="BE3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BF3" s="21" t="s">
+      <c r="BF3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="BG3" s="21" t="s">
+      <c r="BG3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BH3" s="21" t="s">
+      <c r="BH3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BI3" s="24"/>
-      <c r="BJ3" s="22"/>
+      <c r="BI3" s="38"/>
+      <c r="BJ3" s="21"/>
+    </row>
+    <row r="4" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>1</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="41">
+        <v>14</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43">
+        <v>6</v>
+      </c>
+      <c r="H4" s="43">
+        <v>2</v>
+      </c>
+      <c r="I4" s="43">
+        <v>4</v>
+      </c>
+      <c r="J4" s="44">
+        <v>2</v>
+      </c>
+      <c r="K4" s="45">
+        <v>405</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="43">
+        <v>75</v>
+      </c>
+      <c r="T4" s="1">
+        <v>50</v>
+      </c>
+      <c r="U4" s="1">
+        <v>25</v>
+      </c>
+      <c r="V4" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS4" s="50">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="50">
+        <v>38</v>
+      </c>
+      <c r="AU4" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV4" s="39">
+        <v>2022</v>
+      </c>
+      <c r="AW4" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ4" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="39">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="39">
+        <v>45</v>
+      </c>
+      <c r="BD4" s="39">
+        <v>30</v>
+      </c>
+      <c r="BE4" s="39">
+        <v>8</v>
+      </c>
+      <c r="BF4" s="39">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="39">
+        <v>6</v>
+      </c>
+      <c r="BH4" s="39">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="40"/>
+      <c r="BJ4" s="52"/>
+    </row>
+    <row r="5" spans="1:62" s="56" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="41">
+        <v>11</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43">
+        <v>6</v>
+      </c>
+      <c r="H5" s="43">
+        <v>2</v>
+      </c>
+      <c r="I5" s="43">
+        <v>4</v>
+      </c>
+      <c r="J5" s="44">
+        <v>2</v>
+      </c>
+      <c r="K5" s="53">
+        <v>405</v>
+      </c>
+      <c r="L5" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="43">
+        <v>75</v>
+      </c>
+      <c r="T5" s="1">
+        <v>61</v>
+      </c>
+      <c r="U5" s="1">
+        <v>14</v>
+      </c>
+      <c r="V5" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM5" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS5" s="50">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="50">
+        <v>24</v>
+      </c>
+      <c r="AU5" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AV5" s="39">
+        <v>2022</v>
+      </c>
+      <c r="AW5" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="39">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="39">
+        <v>30</v>
+      </c>
+      <c r="BD5" s="39">
+        <v>18</v>
+      </c>
+      <c r="BE5" s="39">
+        <v>6</v>
+      </c>
+      <c r="BF5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="39">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="39">
+        <v>6</v>
+      </c>
+      <c r="BI5" s="40"/>
+      <c r="BJ5" s="2"/>
+    </row>
+    <row r="6" spans="1:62" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43">
+        <v>3</v>
+      </c>
+      <c r="H6" s="43">
+        <v>4</v>
+      </c>
+      <c r="I6" s="43">
+        <v>9</v>
+      </c>
+      <c r="J6" s="44">
+        <v>1</v>
+      </c>
+      <c r="K6" s="58">
+        <v>102</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="43">
+        <v>62</v>
+      </c>
+      <c r="T6" s="1">
+        <v>62</v>
+      </c>
+      <c r="V6" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="W6" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50"/>
+      <c r="AU6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV6" s="39">
+        <v>2023</v>
+      </c>
+      <c r="AW6" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="39">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="39">
+        <v>30</v>
+      </c>
+      <c r="BD6" s="39">
+        <v>20</v>
+      </c>
+      <c r="BE6" s="39">
+        <v>10</v>
+      </c>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
+      <c r="BI6" s="40"/>
+      <c r="BJ6" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="BI1:BI3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD2:BD3"/>
+    <mergeCell ref="BE2:BE3"/>
+    <mergeCell ref="BF2:BF3"/>
+    <mergeCell ref="BG2:BG3"/>
+    <mergeCell ref="BH2:BH3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="AW1:AW3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
@@ -1341,36 +2044,24 @@
     <mergeCell ref="T1:T3"/>
     <mergeCell ref="V1:V3"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AS1:AS3"/>
-    <mergeCell ref="AT1:AT3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="BI1:BI3"/>
-    <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD2:BD3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BF2:BF3"/>
-    <mergeCell ref="BG2:BG3"/>
-    <mergeCell ref="BH2:BH3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="BC1:BH1"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
-  <conditionalFormatting sqref="R1:R1048576">
+  <conditionalFormatting sqref="R1:R3 R7:R1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ7:BJ1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:R6">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ4:BJ1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  <conditionalFormatting sqref="BJ4:BJ6">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
